--- a/mobi_client/mobi_client/mobi_config/excel/数据埋点.xlsx
+++ b/mobi_client/mobi_client/mobi_config/excel/数据埋点.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\mobi_configGit\mobi_client\mobi_client\mobi_config\no_limit_state_excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\mobi_configGit\mobi_config\mobi_client\mobi_client\mobi_config\no_limit_state_excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D440E78C-4990-46B3-B49D-76D9AAA62D0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EC97164-7C21-497C-AA08-CDCF37549842}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28410" yWindow="0" windowWidth="13500" windowHeight="20835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-26460" yWindow="1455" windowWidth="13500" windowHeight="16545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AVGPoint" sheetId="3" r:id="rId1"/>

--- a/mobi_client/mobi_client/mobi_config/excel/数据埋点.xlsx
+++ b/mobi_client/mobi_client/mobi_config/excel/数据埋点.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\mobi_configGit\mobi_config\mobi_client\mobi_client\mobi_config\no_limit_state_excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EC97164-7C21-497C-AA08-CDCF37549842}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A816D9C0-7BE3-4237-A7FA-172262FD0A8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-26460" yWindow="1455" windowWidth="13500" windowHeight="16545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AVGPoint" sheetId="3" r:id="rId1"/>
@@ -323,6 +323,14 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="9"/>
       <name val="宋体"/>
@@ -334,14 +342,6 @@
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
@@ -403,7 +403,7 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -698,7 +698,7 @@
   <dimension ref="A1:C72"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/mobi_client/mobi_client/mobi_config/excel/数据埋点.xlsx
+++ b/mobi_client/mobi_client/mobi_config/excel/数据埋点.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25629"/>
-  <workbookPr codeName="ThisWorkbook"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\mobi_configGit\mobi_config\mobi_client\mobi_client\mobi_config\no_limit_state_excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\svn\01_source\mobi_client\mobi_client\mobi_config\excel_has_limit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A816D9C0-7BE3-4237-A7FA-172262FD0A8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{584431C6-1646-4611-B0C3-152E4A7B0611}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23115" yWindow="135" windowWidth="14835" windowHeight="16545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AVGPoint" sheetId="3" r:id="rId1"/>
@@ -32,7 +32,6 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>ADMIN:</t>
@@ -41,7 +40,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -55,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="79">
   <si>
     <t>ID</t>
   </si>
@@ -286,6 +284,12 @@
   </si>
   <si>
     <t>xiaojiangshi_B</t>
+  </si>
+  <si>
+    <t>LimitState</t>
+  </si>
+  <si>
+    <t>IN:[1;2]</t>
   </si>
 </sst>
 </file>
@@ -305,7 +309,6 @@
       <sz val="10"/>
       <color indexed="9"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -313,20 +316,17 @@
       <sz val="10"/>
       <color indexed="8"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -334,24 +334,21 @@
       <b/>
       <sz val="9"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -373,6 +370,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -407,7 +410,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -418,6 +421,7 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -694,8 +698,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:C72"/>
+  <dimension ref="A1:C73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C13" sqref="C13"/>
@@ -740,22 +743,20 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>1</v>
-      </c>
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4">
-        <v>2</v>
+      <c r="A4" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C5">
         <v>2</v>
@@ -763,10 +764,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C6">
         <v>2</v>
@@ -774,10 +775,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C7">
         <v>2</v>
@@ -785,10 +786,10 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C8">
         <v>2</v>
@@ -796,10 +797,10 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C9">
         <v>2</v>
@@ -807,10 +808,10 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C10">
         <v>2</v>
@@ -818,10 +819,10 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C11">
         <v>2</v>
@@ -829,10 +830,10 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C12">
         <v>2</v>
@@ -840,10 +841,10 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C13">
         <v>2</v>
@@ -851,10 +852,10 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C14">
         <v>2</v>
@@ -862,10 +863,10 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C15">
         <v>2</v>
@@ -873,10 +874,10 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C16">
         <v>2</v>
@@ -884,10 +885,10 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B17" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C17">
         <v>2</v>
@@ -895,10 +896,10 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C18">
         <v>2</v>
@@ -906,10 +907,10 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C19">
         <v>2</v>
@@ -917,10 +918,10 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C20">
         <v>2</v>
@@ -928,10 +929,10 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C21">
         <v>2</v>
@@ -939,10 +940,10 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B22" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C22">
         <v>2</v>
@@ -950,10 +951,10 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C23">
         <v>2</v>
@@ -961,10 +962,10 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B24" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C24">
         <v>2</v>
@@ -972,21 +973,21 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B25" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C25">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B26" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C26">
         <v>1</v>
@@ -994,10 +995,10 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B27" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C27">
         <v>1</v>
@@ -1005,10 +1006,10 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B28" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C28">
         <v>1</v>
@@ -1016,10 +1017,10 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B29" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C29">
         <v>1</v>
@@ -1027,10 +1028,10 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B30" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C30">
         <v>1</v>
@@ -1038,10 +1039,10 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B31" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C31">
         <v>1</v>
@@ -1049,10 +1050,10 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B32" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C32">
         <v>1</v>
@@ -1060,10 +1061,10 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B33" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C33">
         <v>1</v>
@@ -1071,10 +1072,10 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B34" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C34">
         <v>1</v>
@@ -1082,10 +1083,10 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B35" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C35">
         <v>1</v>
@@ -1093,10 +1094,10 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B36" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C36">
         <v>1</v>
@@ -1104,10 +1105,10 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B37" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C37">
         <v>1</v>
@@ -1115,10 +1116,10 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B38" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C38">
         <v>1</v>
@@ -1126,10 +1127,10 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B39" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C39">
         <v>1</v>
@@ -1137,10 +1138,10 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B40" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C40">
         <v>1</v>
@@ -1148,10 +1149,10 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B41" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C41">
         <v>1</v>
@@ -1159,10 +1160,10 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B42" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C42">
         <v>1</v>
@@ -1170,10 +1171,10 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B43" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C43">
         <v>1</v>
@@ -1181,10 +1182,10 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B44" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C44">
         <v>1</v>
@@ -1192,10 +1193,10 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B45" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C45">
         <v>1</v>
@@ -1203,10 +1204,10 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B46" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C46">
         <v>1</v>
@@ -1214,10 +1215,10 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B47" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C47">
         <v>1</v>
@@ -1225,10 +1226,10 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B48" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C48">
         <v>1</v>
@@ -1236,10 +1237,10 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B49" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C49">
         <v>1</v>
@@ -1247,10 +1248,10 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B50" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C50">
         <v>1</v>
@@ -1258,10 +1259,10 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B51" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C51">
         <v>1</v>
@@ -1269,10 +1270,10 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B52" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C52">
         <v>1</v>
@@ -1280,10 +1281,10 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B53" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C53">
         <v>1</v>
@@ -1291,10 +1292,10 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B54" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C54">
         <v>1</v>
@@ -1302,10 +1303,10 @@
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B55" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C55">
         <v>1</v>
@@ -1313,10 +1314,10 @@
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B56" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C56">
         <v>1</v>
@@ -1324,10 +1325,10 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B57" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C57">
         <v>1</v>
@@ -1335,10 +1336,10 @@
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B58" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C58">
         <v>1</v>
@@ -1346,10 +1347,10 @@
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B59" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C59">
         <v>1</v>
@@ -1357,10 +1358,10 @@
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B60" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C60">
         <v>1</v>
@@ -1368,10 +1369,10 @@
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B61" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C61">
         <v>1</v>
@@ -1379,10 +1380,10 @@
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B62" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C62">
         <v>1</v>
@@ -1390,10 +1391,10 @@
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B63" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C63">
         <v>1</v>
@@ -1401,10 +1402,10 @@
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B64" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C64">
         <v>1</v>
@@ -1412,10 +1413,10 @@
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B65" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C65">
         <v>1</v>
@@ -1423,10 +1424,10 @@
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B66" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C66">
         <v>1</v>
@@ -1434,10 +1435,10 @@
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B67" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C67">
         <v>1</v>
@@ -1445,10 +1446,10 @@
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B68" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C68">
         <v>1</v>
@@ -1456,10 +1457,10 @@
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B69" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C69">
         <v>1</v>
@@ -1467,10 +1468,10 @@
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B70" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C70">
         <v>1</v>
@@ -1478,10 +1479,10 @@
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B71" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C71">
         <v>1</v>
@@ -1489,12 +1490,23 @@
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72">
+        <v>68</v>
+      </c>
+      <c r="B72" t="s">
+        <v>75</v>
+      </c>
+      <c r="C72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A73">
         <v>69</v>
       </c>
-      <c r="B72" t="s">
+      <c r="B73" t="s">
         <v>76</v>
       </c>
-      <c r="C72">
+      <c r="C73">
         <v>1</v>
       </c>
     </row>
